--- a/Code/Results/Cases/Case_1_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_167/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6772821815918348</v>
+        <v>0.6535654753184303</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07041617403981348</v>
+        <v>0.1688981928058197</v>
       </c>
       <c r="E2">
-        <v>0.06794161832508516</v>
+        <v>0.1784000513718196</v>
       </c>
       <c r="F2">
-        <v>0.7627702759767061</v>
+        <v>1.649194843992383</v>
       </c>
       <c r="G2">
-        <v>0.0008166945537490277</v>
+        <v>0.002483073591601215</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4849748472352786</v>
+        <v>1.207491550872319</v>
       </c>
       <c r="J2">
-        <v>0.1069271861632526</v>
+        <v>0.2339957582450491</v>
       </c>
       <c r="K2">
-        <v>1.139309537229508</v>
+        <v>0.3901638544234913</v>
       </c>
       <c r="L2">
-        <v>0.2315675333229592</v>
+        <v>0.2284863662144119</v>
       </c>
       <c r="M2">
-        <v>0.2014113920481044</v>
+        <v>0.1961495747503825</v>
       </c>
       <c r="N2">
-        <v>1.079142352476524</v>
+        <v>2.249714930386434</v>
       </c>
       <c r="O2">
-        <v>1.919991507757629</v>
+        <v>4.092461309231368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5980842679492469</v>
+        <v>0.6335038570283587</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06771530055210206</v>
+        <v>0.1688434198745341</v>
       </c>
       <c r="E3">
-        <v>0.06888014325088276</v>
+        <v>0.1791825700571077</v>
       </c>
       <c r="F3">
-        <v>0.7469169777005504</v>
+        <v>1.655082101234498</v>
       </c>
       <c r="G3">
-        <v>0.0008201533017055749</v>
+        <v>0.002485436377553076</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4971939043501514</v>
+        <v>1.217106497801193</v>
       </c>
       <c r="J3">
-        <v>0.1079588806174936</v>
+        <v>0.2346602643685207</v>
       </c>
       <c r="K3">
-        <v>0.9921132451778192</v>
+        <v>0.3461072448480706</v>
       </c>
       <c r="L3">
-        <v>0.2047408945718701</v>
+        <v>0.221983610021411</v>
       </c>
       <c r="M3">
-        <v>0.1779519665599132</v>
+        <v>0.1903095535281558</v>
       </c>
       <c r="N3">
-        <v>1.122372277345437</v>
+        <v>2.268932592856475</v>
       </c>
       <c r="O3">
-        <v>1.884276184326836</v>
+        <v>4.109212476796557</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5497064192853713</v>
+        <v>0.6214136794185379</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06610695966666214</v>
+        <v>0.1688540734911967</v>
       </c>
       <c r="E4">
-        <v>0.06949675871585725</v>
+        <v>0.1796944936094258</v>
       </c>
       <c r="F4">
-        <v>0.7383138210180604</v>
+        <v>1.659394911338616</v>
       </c>
       <c r="G4">
-        <v>0.000822352666740037</v>
+        <v>0.002486966445496602</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5053699103928366</v>
+        <v>1.223433041427018</v>
       </c>
       <c r="J4">
-        <v>0.1086303459547837</v>
+        <v>0.2350948167637199</v>
       </c>
       <c r="K4">
-        <v>0.9017754932241928</v>
+        <v>0.3190548332292167</v>
       </c>
       <c r="L4">
-        <v>0.1883878348136676</v>
+        <v>0.2180757179254584</v>
       </c>
       <c r="M4">
-        <v>0.1636330721172143</v>
+        <v>0.1867939195706789</v>
       </c>
       <c r="N4">
-        <v>1.150013619910267</v>
+        <v>2.281343468055017</v>
       </c>
       <c r="O4">
-        <v>1.865460999997026</v>
+        <v>4.121326501638833</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5300493985237438</v>
+        <v>0.6165446491960438</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06546383891163998</v>
+        <v>0.1688695962358331</v>
       </c>
       <c r="E5">
-        <v>0.0697581110907004</v>
+        <v>0.17991103426123</v>
       </c>
       <c r="F5">
-        <v>0.7350822216583381</v>
+        <v>1.661328175987478</v>
       </c>
       <c r="G5">
-        <v>0.0008232682205047244</v>
+        <v>0.002487609961193793</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5088672542189343</v>
+        <v>1.226117613576097</v>
       </c>
       <c r="J5">
-        <v>0.1089134907869864</v>
+        <v>0.2352785925201832</v>
       </c>
       <c r="K5">
-        <v>0.8649619653229479</v>
+        <v>0.3080310422311641</v>
       </c>
       <c r="L5">
-        <v>0.1817509743604404</v>
+        <v>0.216504698506256</v>
       </c>
       <c r="M5">
-        <v>0.1578175589412929</v>
+        <v>0.1853790630078578</v>
       </c>
       <c r="N5">
-        <v>1.161549062289494</v>
+        <v>2.286554776949842</v>
       </c>
       <c r="O5">
-        <v>1.858546946531249</v>
+        <v>4.126723371331167</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5267886727889106</v>
+        <v>0.6157396584872004</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06535778354837873</v>
+        <v>0.1688728504422095</v>
       </c>
       <c r="E6">
-        <v>0.06980211502354106</v>
+        <v>0.1799474700205201</v>
       </c>
       <c r="F6">
-        <v>0.734561894415009</v>
+        <v>1.661659815586113</v>
       </c>
       <c r="G6">
-        <v>0.0008234214204726377</v>
+        <v>0.002487718026228421</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5094578765467332</v>
+        <v>1.226569817423222</v>
       </c>
       <c r="J6">
-        <v>0.1089610805223264</v>
+        <v>0.23530951305331</v>
       </c>
       <c r="K6">
-        <v>0.8588487995304206</v>
+        <v>0.3062005867707001</v>
       </c>
       <c r="L6">
-        <v>0.1806504924121981</v>
+        <v>0.216245133521646</v>
       </c>
       <c r="M6">
-        <v>0.1568530247902906</v>
+        <v>0.1851452062029537</v>
       </c>
       <c r="N6">
-        <v>1.16348076935277</v>
+        <v>2.287429401434367</v>
       </c>
       <c r="O6">
-        <v>1.857443523654794</v>
+        <v>4.127647332182661</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5494410927305466</v>
+        <v>0.6213477791534388</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06609823691256622</v>
+        <v>0.1688542375021882</v>
       </c>
       <c r="E7">
-        <v>0.06950024269759281</v>
+        <v>0.1796973818288898</v>
       </c>
       <c r="F7">
-        <v>0.7382691411112532</v>
+        <v>1.659420272060764</v>
       </c>
       <c r="G7">
-        <v>0.0008223649357257843</v>
+        <v>0.002486975043104851</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5054164113677118</v>
+        <v>1.223468815335842</v>
       </c>
       <c r="J7">
-        <v>0.1086341260582948</v>
+        <v>0.2350972681079275</v>
       </c>
       <c r="K7">
-        <v>0.9012790273137625</v>
+        <v>0.3189061604986421</v>
       </c>
       <c r="L7">
-        <v>0.188298221331209</v>
+        <v>0.2180544434467464</v>
       </c>
       <c r="M7">
-        <v>0.1635545653395738</v>
+        <v>0.1867747660790613</v>
       </c>
       <c r="N7">
-        <v>1.150168098245183</v>
+        <v>2.281413126823845</v>
       </c>
       <c r="O7">
-        <v>1.865364743033524</v>
+        <v>4.121397421346416</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.649919425753211</v>
+        <v>0.6466012843952171</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06947435819972014</v>
+        <v>0.1688701429548303</v>
       </c>
       <c r="E8">
-        <v>0.06825680147361579</v>
+        <v>0.1786633465765957</v>
       </c>
       <c r="F8">
-        <v>0.7570631334342721</v>
+        <v>1.651080039744301</v>
       </c>
       <c r="G8">
-        <v>0.000817871585063683</v>
+        <v>0.002483871854927591</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4890458767947798</v>
+        <v>1.210719069950702</v>
       </c>
       <c r="J8">
-        <v>0.1072750034863112</v>
+        <v>0.2342193816053557</v>
       </c>
       <c r="K8">
-        <v>1.088541094086793</v>
+        <v>0.3749738227314481</v>
       </c>
       <c r="L8">
-        <v>0.2222914290027092</v>
+        <v>0.2262266965298352</v>
       </c>
       <c r="M8">
-        <v>0.1933037046947454</v>
+        <v>0.1941214609025792</v>
       </c>
       <c r="N8">
-        <v>1.093817242615567</v>
+        <v>2.256214395715638</v>
       </c>
       <c r="O8">
-        <v>1.907012159303548</v>
+        <v>4.097857824749411</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8492128625682938</v>
+        <v>0.6979091114082792</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.07650558776608563</v>
+        <v>0.1692508128427974</v>
       </c>
       <c r="E9">
-        <v>0.06614200779597645</v>
+        <v>0.1768843538965084</v>
       </c>
       <c r="F9">
-        <v>0.8033706738332711</v>
+        <v>1.6402536826483</v>
       </c>
       <c r="G9">
-        <v>0.0008096480789251959</v>
+        <v>0.002478413140649601</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4624644008756249</v>
+        <v>1.189067788612466</v>
       </c>
       <c r="J9">
-        <v>0.1049131319900294</v>
+        <v>0.2327076604668736</v>
       </c>
       <c r="K9">
-        <v>1.456611720207036</v>
+        <v>0.4848870132238403</v>
       </c>
       <c r="L9">
-        <v>0.2900239415091903</v>
+        <v>0.2429199879368298</v>
       </c>
       <c r="M9">
-        <v>0.2524113429553623</v>
+        <v>0.2090792882683559</v>
       </c>
       <c r="N9">
-        <v>0.9922449949849241</v>
+        <v>2.211643933548965</v>
       </c>
       <c r="O9">
-        <v>2.01480822325928</v>
+        <v>4.066189319285286</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.997421844337282</v>
+        <v>0.7366693982479262</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.08194274408919</v>
+        <v>0.1697411494334204</v>
       </c>
       <c r="E10">
-        <v>0.06479045864028921</v>
+        <v>0.1757278297605414</v>
       </c>
       <c r="F10">
-        <v>0.8438598364472085</v>
+        <v>1.63565854372321</v>
       </c>
       <c r="G10">
-        <v>0.0008039463287881246</v>
+        <v>0.002474780931852356</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4465576117838594</v>
+        <v>1.175196704970396</v>
       </c>
       <c r="J10">
-        <v>0.1033655661100212</v>
+        <v>0.2317238108193553</v>
       </c>
       <c r="K10">
-        <v>1.728346084384015</v>
+        <v>0.5655947066952081</v>
       </c>
       <c r="L10">
-        <v>0.3406375035415437</v>
+        <v>0.2555854876677444</v>
       </c>
       <c r="M10">
-        <v>0.2964473984994669</v>
+        <v>0.2203982565499203</v>
       </c>
       <c r="N10">
-        <v>0.9233796802365415</v>
+        <v>2.181843207720396</v>
       </c>
       <c r="O10">
-        <v>2.11201256708344</v>
+        <v>4.051737205916254</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.06533210028752</v>
+        <v>0.7545287023758078</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0844801265050279</v>
+        <v>0.1700094625995803</v>
       </c>
       <c r="E11">
-        <v>0.06422067652970398</v>
+        <v>0.1752341351353381</v>
       </c>
       <c r="F11">
-        <v>0.8638491943468267</v>
+        <v>1.634295125295125</v>
       </c>
       <c r="G11">
-        <v>0.000801422042853515</v>
+        <v>0.002473209906300139</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4401676603893669</v>
+        <v>1.169327096115939</v>
       </c>
       <c r="J11">
-        <v>0.1027029855835693</v>
+        <v>0.2313035364627236</v>
       </c>
       <c r="K11">
-        <v>1.852440046222227</v>
+        <v>0.6022961938869855</v>
       </c>
       <c r="L11">
-        <v>0.363894440879676</v>
+        <v>0.261433222517482</v>
       </c>
       <c r="M11">
-        <v>0.3166462475188752</v>
+        <v>0.2256177943026216</v>
       </c>
       <c r="N11">
-        <v>0.8933753496568446</v>
+        <v>2.168923914471204</v>
       </c>
       <c r="O11">
-        <v>2.16063315912092</v>
+        <v>4.047072559852694</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.091126661309517</v>
+        <v>0.7613237028075446</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08545059701862101</v>
+        <v>0.1701175297275483</v>
       </c>
       <c r="E12">
-        <v>0.06401149896058733</v>
+        <v>0.175051828377458</v>
       </c>
       <c r="F12">
-        <v>0.871659107216189</v>
+        <v>1.633883151728298</v>
       </c>
       <c r="G12">
-        <v>0.0008004757863820393</v>
+        <v>0.002472626628781988</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4378749376144988</v>
+        <v>1.167167656228116</v>
       </c>
       <c r="J12">
-        <v>0.1024581056496316</v>
+        <v>0.2311482950150889</v>
       </c>
       <c r="K12">
-        <v>1.899516729725036</v>
+        <v>0.616191671670407</v>
       </c>
       <c r="L12">
-        <v>0.3727387547011602</v>
+        <v>0.2636598620052553</v>
       </c>
       <c r="M12">
-        <v>0.3243218543756754</v>
+        <v>0.2276042964691101</v>
       </c>
       <c r="N12">
-        <v>0.8822103807932571</v>
+        <v>2.164123249522575</v>
       </c>
       <c r="O12">
-        <v>2.179720886519334</v>
+        <v>4.045580407505781</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.085567719242306</v>
+        <v>0.7598588608296666</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08524115410500599</v>
+        <v>0.1700939688225702</v>
       </c>
       <c r="E13">
-        <v>0.06405625433495477</v>
+        <v>0.1750908850864867</v>
       </c>
       <c r="F13">
-        <v>0.8699661710561486</v>
+        <v>1.63396724112016</v>
       </c>
       <c r="G13">
-        <v>0.0008006791568814079</v>
+        <v>0.002472751731339365</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.43836297925343</v>
+        <v>1.167629918257948</v>
       </c>
       <c r="J13">
-        <v>0.102510575786912</v>
+        <v>0.2311815555132348</v>
       </c>
       <c r="K13">
-        <v>1.889373878561912</v>
+        <v>0.6131991582613807</v>
       </c>
       <c r="L13">
-        <v>0.3708322432061379</v>
+        <v>0.2631797739550024</v>
       </c>
       <c r="M13">
-        <v>0.3226675395522776</v>
+        <v>0.2271760265056528</v>
       </c>
       <c r="N13">
-        <v>0.884606081664348</v>
+        <v>2.165153085663437</v>
       </c>
       <c r="O13">
-        <v>2.175579213213837</v>
+        <v>4.04588957775502</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.067452614610744</v>
+        <v>0.755087091755172</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08455977243936985</v>
+        <v>0.1700182240821349</v>
       </c>
       <c r="E14">
-        <v>0.06420333470863149</v>
+        <v>0.1752190436559191</v>
       </c>
       <c r="F14">
-        <v>0.8644868166867781</v>
+        <v>1.634259142381211</v>
       </c>
       <c r="G14">
-        <v>0.0008013440027560097</v>
+        <v>0.002473161686910933</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4399764595018958</v>
+        <v>1.169148170444124</v>
       </c>
       <c r="J14">
-        <v>0.102682717993801</v>
+        <v>0.2312906864382871</v>
       </c>
       <c r="K14">
-        <v>1.856311274933603</v>
+        <v>0.6034394390854914</v>
       </c>
       <c r="L14">
-        <v>0.3646212942989422</v>
+        <v>0.2616161652963314</v>
       </c>
       <c r="M14">
-        <v>0.3172771718046761</v>
+        <v>0.2257810259971436</v>
       </c>
       <c r="N14">
-        <v>0.8924528120457609</v>
+        <v>2.168527125467076</v>
       </c>
       <c r="O14">
-        <v>2.162189709445556</v>
+        <v>4.046944305328395</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.056367050977315</v>
+        <v>0.7521684045850918</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08414367197904227</v>
+        <v>0.1699726685475298</v>
       </c>
       <c r="E15">
-        <v>0.06429428681623417</v>
+        <v>0.1752981488696541</v>
       </c>
       <c r="F15">
-        <v>0.8611623043779133</v>
+        <v>1.634451520122894</v>
       </c>
       <c r="G15">
-        <v>0.0008017524840464388</v>
+        <v>0.002473414310183623</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4409814672796593</v>
+        <v>1.170086378932833</v>
       </c>
       <c r="J15">
-        <v>0.1027889468649512</v>
+        <v>0.2313580406564277</v>
       </c>
       <c r="K15">
-        <v>1.836071034690434</v>
+        <v>0.5974609717108308</v>
       </c>
       <c r="L15">
-        <v>0.3608219039944487</v>
+        <v>0.260659997787883</v>
       </c>
       <c r="M15">
-        <v>0.3139789840327936</v>
+        <v>0.2249278424274905</v>
       </c>
       <c r="N15">
-        <v>0.8972850271992314</v>
+        <v>2.170605749028869</v>
       </c>
       <c r="O15">
-        <v>2.154077636821</v>
+        <v>4.047626060797654</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9929942722645251</v>
+        <v>0.7355067700094367</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0817782429043632</v>
+        <v>0.1697245213586314</v>
       </c>
       <c r="E16">
-        <v>0.06482861081865243</v>
+        <v>0.1757607447126017</v>
       </c>
       <c r="F16">
-        <v>0.8425863112417176</v>
+        <v>1.635762256239545</v>
       </c>
       <c r="G16">
-        <v>0.0008041126649204742</v>
+        <v>0.00247488523334266</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4469926861471691</v>
+        <v>1.175589153361521</v>
       </c>
       <c r="J16">
-        <v>0.103409706474908</v>
+        <v>0.2317518243816679</v>
       </c>
       <c r="K16">
-        <v>1.720247255700542</v>
+        <v>0.5631958571662494</v>
       </c>
       <c r="L16">
-        <v>0.3391226214637868</v>
+        <v>0.2552050442938452</v>
       </c>
       <c r="M16">
-        <v>0.2951309427270274</v>
+        <v>0.2200585521955105</v>
       </c>
       <c r="N16">
-        <v>0.9253677249789973</v>
+        <v>2.182700332787631</v>
       </c>
       <c r="O16">
-        <v>2.1089273032687</v>
+        <v>4.05208044832645</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9542480125802228</v>
+        <v>0.7253431379261599</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.08034380713302625</v>
+        <v>0.1695838502743001</v>
       </c>
       <c r="E17">
-        <v>0.06516801365057523</v>
+        <v>0.1760528225701212</v>
       </c>
       <c r="F17">
-        <v>0.8316028734885208</v>
+        <v>1.636752386955301</v>
       </c>
       <c r="G17">
-        <v>0.0008055781063233587</v>
+        <v>0.00247580837851744</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4509007944976595</v>
+        <v>1.179077673003018</v>
       </c>
       <c r="J17">
-        <v>0.1038011771888652</v>
+        <v>0.2320003745182078</v>
       </c>
       <c r="K17">
-        <v>1.649327170185984</v>
+        <v>0.5421715085819017</v>
       </c>
       <c r="L17">
-        <v>0.3258731250703306</v>
+        <v>0.2518805567335818</v>
       </c>
       <c r="M17">
-        <v>0.2836128786718106</v>
+        <v>0.2170893396085276</v>
       </c>
       <c r="N17">
-        <v>0.9429390772907373</v>
+        <v>2.190283143778762</v>
       </c>
       <c r="O17">
-        <v>2.082386333811968</v>
+        <v>4.055301930236396</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9320077260158257</v>
+        <v>0.7195186917872718</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07952475442380091</v>
+        <v>0.1695072024406556</v>
       </c>
       <c r="E18">
-        <v>0.06536746201160026</v>
+        <v>0.1762238699634668</v>
       </c>
       <c r="F18">
-        <v>0.8254324055240687</v>
+        <v>1.637390318838115</v>
       </c>
       <c r="G18">
-        <v>0.0008064275505249643</v>
+        <v>0.00247634700105342</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4532279394899845</v>
+        <v>1.181125635950863</v>
       </c>
       <c r="J18">
-        <v>0.1040302344280306</v>
+        <v>0.2321459030138353</v>
       </c>
       <c r="K18">
-        <v>1.608580037050956</v>
+        <v>0.5300776938767342</v>
       </c>
       <c r="L18">
-        <v>0.3182740027821467</v>
+        <v>0.2499765162904311</v>
       </c>
       <c r="M18">
-        <v>0.2770034995549011</v>
+        <v>0.2153881706836671</v>
       </c>
       <c r="N18">
-        <v>0.9531697375590893</v>
+        <v>2.194704555109793</v>
       </c>
       <c r="O18">
-        <v>2.067532250943458</v>
+        <v>4.057334612482123</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9244851306897317</v>
+        <v>0.7175503286385094</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07924845493603527</v>
+        <v>0.1694819842575228</v>
       </c>
       <c r="E19">
-        <v>0.06543571558283023</v>
+        <v>0.1762823083461447</v>
       </c>
       <c r="F19">
-        <v>0.8233679957660271</v>
+        <v>1.637618071730131</v>
       </c>
       <c r="G19">
-        <v>0.0008067162950926576</v>
+        <v>0.002476530685699244</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4540293335035805</v>
+        <v>1.181826163970136</v>
       </c>
       <c r="J19">
-        <v>0.1041084559960535</v>
+        <v>0.2321956181860756</v>
       </c>
       <c r="K19">
-        <v>1.594790887739521</v>
+        <v>0.525982758119568</v>
       </c>
       <c r="L19">
-        <v>0.3157046701213915</v>
+        <v>0.249333239773577</v>
       </c>
       <c r="M19">
-        <v>0.2747682588500666</v>
+        <v>0.2148133300015331</v>
       </c>
       <c r="N19">
-        <v>0.9566547739518985</v>
+        <v>2.196211871687456</v>
       </c>
       <c r="O19">
-        <v>2.062572331201295</v>
+        <v>4.05805373070001</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9583678483327276</v>
+        <v>0.726422862655852</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.08049588168801591</v>
+        <v>0.1695983841307012</v>
       </c>
       <c r="E20">
-        <v>0.06513144479032018</v>
+        <v>0.1760214146392602</v>
       </c>
       <c r="F20">
-        <v>0.8327567716836271</v>
+        <v>1.636639904608209</v>
       </c>
       <c r="G20">
-        <v>0.0008054214310869948</v>
+        <v>0.002475709316218162</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.45047652424633</v>
+        <v>1.178702023875111</v>
       </c>
       <c r="J20">
-        <v>0.1037591010035612</v>
+        <v>0.2319736501636207</v>
       </c>
       <c r="K20">
-        <v>1.656872045842391</v>
+        <v>0.5444097122974938</v>
       </c>
       <c r="L20">
-        <v>0.3272812892462156</v>
+        <v>0.2522336151807423</v>
       </c>
       <c r="M20">
-        <v>0.2848373718044144</v>
+        <v>0.2174047309173659</v>
       </c>
       <c r="N20">
-        <v>0.9410556867126321</v>
+        <v>2.189469733287989</v>
       </c>
       <c r="O20">
-        <v>2.085168764091577</v>
+        <v>4.054940394989444</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.07277126475563</v>
+        <v>0.7564878102701869</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08475964624375365</v>
+        <v>0.1700402971095656</v>
       </c>
       <c r="E21">
-        <v>0.06415995397296292</v>
+        <v>0.1751812744523562</v>
       </c>
       <c r="F21">
-        <v>0.8660895919307308</v>
+        <v>1.634170574261731</v>
       </c>
       <c r="G21">
-        <v>0.0008011484627915429</v>
+        <v>0.002473040957574167</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4394990500712375</v>
+        <v>1.168700506906973</v>
       </c>
       <c r="J21">
-        <v>0.1026319915531051</v>
+        <v>0.2312585261237885</v>
       </c>
       <c r="K21">
-        <v>1.866020124209314</v>
+        <v>0.6063061810108366</v>
       </c>
       <c r="L21">
-        <v>0.3664445520704049</v>
+        <v>0.2620751044160556</v>
       </c>
       <c r="M21">
-        <v>0.3188597046623514</v>
+        <v>0.2261905019680768</v>
       </c>
       <c r="N21">
-        <v>0.8901426339441567</v>
+        <v>2.167533602728289</v>
       </c>
       <c r="O21">
-        <v>2.166103822539782</v>
+        <v>4.046627066162642</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.148001730672689</v>
+        <v>0.7763236480537614</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08760254187047423</v>
+        <v>0.1703667618353535</v>
       </c>
       <c r="E22">
-        <v>0.06356347619317759</v>
+        <v>0.174659259497111</v>
       </c>
       <c r="F22">
-        <v>0.8892830134864198</v>
+        <v>1.633164703857062</v>
       </c>
       <c r="G22">
-        <v>0.0007984118178215031</v>
+        <v>0.002471364829995681</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4330676656247796</v>
+        <v>1.162532592046411</v>
       </c>
       <c r="J22">
-        <v>0.1019305154067212</v>
+        <v>0.230813918774798</v>
       </c>
       <c r="K22">
-        <v>2.003214085264176</v>
+        <v>0.6467437295467846</v>
       </c>
       <c r="L22">
-        <v>0.3922601415474105</v>
+        <v>0.2685782948202871</v>
       </c>
       <c r="M22">
-        <v>0.3412525574122611</v>
+        <v>0.2319905881918984</v>
       </c>
       <c r="N22">
-        <v>0.8580198344179504</v>
+        <v>2.153730919932064</v>
       </c>
       <c r="O22">
-        <v>2.222962817903863</v>
+        <v>4.042792182914496</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.107804810798314</v>
+        <v>0.7657200008704876</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08607994066857572</v>
+        <v>0.1701890914416779</v>
       </c>
       <c r="E23">
-        <v>0.06387827157997172</v>
+        <v>0.174935397627058</v>
       </c>
       <c r="F23">
-        <v>0.8767703347066629</v>
+        <v>1.633645994614966</v>
       </c>
       <c r="G23">
-        <v>0.000799867415964051</v>
+        <v>0.002472253224372402</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4364303845773172</v>
+        <v>1.165790817928933</v>
       </c>
       <c r="J23">
-        <v>0.1023016650183894</v>
+        <v>0.23104913612055</v>
       </c>
       <c r="K23">
-        <v>1.929939461519893</v>
+        <v>0.6251630973196995</v>
       </c>
       <c r="L23">
-        <v>0.3784603491094742</v>
+        <v>0.2651009560470925</v>
       </c>
       <c r="M23">
-        <v>0.3292857113018002</v>
+        <v>0.2288897114427968</v>
       </c>
       <c r="N23">
-        <v>0.8750566358462386</v>
+        <v>2.161048836522186</v>
       </c>
       <c r="O23">
-        <v>2.192238468270972</v>
+        <v>4.044692802607898</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9565051607607415</v>
+        <v>0.7259346606224142</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.08042711129692037</v>
+        <v>0.1695918002086145</v>
       </c>
       <c r="E24">
-        <v>0.06514796412080726</v>
+        <v>0.1760356044208748</v>
       </c>
       <c r="F24">
-        <v>0.8322346466928394</v>
+        <v>1.636690543889756</v>
       </c>
       <c r="G24">
-        <v>0.0008054922423431578</v>
+        <v>0.002475754077621877</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4506680870441144</v>
+        <v>1.178871722871662</v>
       </c>
       <c r="J24">
-        <v>0.1037781112069034</v>
+        <v>0.2319857240400243</v>
       </c>
       <c r="K24">
-        <v>1.653460928480996</v>
+        <v>0.5433978410147233</v>
       </c>
       <c r="L24">
-        <v>0.326644601862597</v>
+        <v>0.252073974856458</v>
       </c>
       <c r="M24">
-        <v>0.2842837397033975</v>
+        <v>0.2172621242074442</v>
       </c>
       <c r="N24">
-        <v>0.9419067673687227</v>
+        <v>2.189837283189895</v>
       </c>
       <c r="O24">
-        <v>2.083909570126593</v>
+        <v>4.055103282460038</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7950160240642106</v>
+        <v>0.6838403107479678</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07455739896263935</v>
+        <v>0.1691106652932461</v>
       </c>
       <c r="E25">
-        <v>0.0666789841369857</v>
+        <v>0.1773391068254098</v>
       </c>
       <c r="F25">
-        <v>0.7897609450746188</v>
+        <v>1.642591793866728</v>
       </c>
       <c r="G25">
-        <v>0.0008118116577886978</v>
+        <v>0.002479823166726138</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4690386166859071</v>
+        <v>1.194566989086056</v>
       </c>
       <c r="J25">
-        <v>0.1055193349130406</v>
+        <v>0.2330942729551317</v>
       </c>
       <c r="K25">
-        <v>1.356868848311848</v>
+        <v>0.4551588419247139</v>
       </c>
       <c r="L25">
-        <v>0.2715661314289264</v>
+        <v>0.2383331672199489</v>
       </c>
       <c r="M25">
-        <v>0.2363247599362879</v>
+        <v>0.2049744790550463</v>
       </c>
       <c r="N25">
-        <v>1.018735356488383</v>
+        <v>2.223183654671263</v>
       </c>
       <c r="O25">
-        <v>1.982642140793502</v>
+        <v>4.07320706256499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_167/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_167/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6535654753184303</v>
+        <v>0.6772821815918348</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1688981928058197</v>
+        <v>0.07041617403994138</v>
       </c>
       <c r="E2">
-        <v>0.1784000513718196</v>
+        <v>0.06794161832508383</v>
       </c>
       <c r="F2">
-        <v>1.649194843992383</v>
+        <v>0.7627702759767132</v>
       </c>
       <c r="G2">
-        <v>0.002483073591601215</v>
+        <v>0.0008166945536542526</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.207491550872319</v>
+        <v>0.4849748472352893</v>
       </c>
       <c r="J2">
-        <v>0.2339957582450491</v>
+        <v>0.1069271861632597</v>
       </c>
       <c r="K2">
-        <v>0.3901638544234913</v>
+        <v>1.139309537229565</v>
       </c>
       <c r="L2">
-        <v>0.2284863662144119</v>
+        <v>0.2315675333228882</v>
       </c>
       <c r="M2">
-        <v>0.1961495747503825</v>
+        <v>0.2014113920481009</v>
       </c>
       <c r="N2">
-        <v>2.249714930386434</v>
+        <v>1.079142352476566</v>
       </c>
       <c r="O2">
-        <v>4.092461309231368</v>
+        <v>1.919991507757686</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6335038570283587</v>
+        <v>0.5980842679492184</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1688434198745341</v>
+        <v>0.06771530055203101</v>
       </c>
       <c r="E3">
-        <v>0.1791825700571077</v>
+        <v>0.0688801432508841</v>
       </c>
       <c r="F3">
-        <v>1.655082101234498</v>
+        <v>0.7469169777005504</v>
       </c>
       <c r="G3">
-        <v>0.002485436377553076</v>
+        <v>0.0008201533017438599</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.217106497801193</v>
+        <v>0.4971939043501337</v>
       </c>
       <c r="J3">
-        <v>0.2346602643685207</v>
+        <v>0.1079588806174598</v>
       </c>
       <c r="K3">
-        <v>0.3461072448480706</v>
+        <v>0.9921132451778476</v>
       </c>
       <c r="L3">
-        <v>0.221983610021411</v>
+        <v>0.2047408945719553</v>
       </c>
       <c r="M3">
-        <v>0.1903095535281558</v>
+        <v>0.1779519665599132</v>
       </c>
       <c r="N3">
-        <v>2.268932592856475</v>
+        <v>1.12237227734543</v>
       </c>
       <c r="O3">
-        <v>4.109212476796557</v>
+        <v>1.884276184326808</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6214136794185379</v>
+        <v>0.5497064192856271</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1688540734911967</v>
+        <v>0.06610695966675451</v>
       </c>
       <c r="E4">
-        <v>0.1796944936094258</v>
+        <v>0.06949675871586702</v>
       </c>
       <c r="F4">
-        <v>1.659394911338616</v>
+        <v>0.738313821018032</v>
       </c>
       <c r="G4">
-        <v>0.002486966445496602</v>
+        <v>0.000822352666759482</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.223433041427018</v>
+        <v>0.5053699103928366</v>
       </c>
       <c r="J4">
-        <v>0.2350948167637199</v>
+        <v>0.1086303459547748</v>
       </c>
       <c r="K4">
-        <v>0.3190548332292167</v>
+        <v>0.9017754932241644</v>
       </c>
       <c r="L4">
-        <v>0.2180757179254584</v>
+        <v>0.1883878348135966</v>
       </c>
       <c r="M4">
-        <v>0.1867939195706789</v>
+        <v>0.1636330721172321</v>
       </c>
       <c r="N4">
-        <v>2.281343468055017</v>
+        <v>1.150013619910259</v>
       </c>
       <c r="O4">
-        <v>4.121326501638833</v>
+        <v>1.865460999996955</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6165446491960438</v>
+        <v>0.5300493985236301</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1688695962358331</v>
+        <v>0.06546383891160801</v>
       </c>
       <c r="E5">
-        <v>0.17991103426123</v>
+        <v>0.06975811109069774</v>
       </c>
       <c r="F5">
-        <v>1.661328175987478</v>
+        <v>0.7350822216583381</v>
       </c>
       <c r="G5">
-        <v>0.002487609961193793</v>
+        <v>0.0008232682205647299</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.226117613576097</v>
+        <v>0.5088672542189343</v>
       </c>
       <c r="J5">
-        <v>0.2352785925201832</v>
+        <v>0.1089134907869642</v>
       </c>
       <c r="K5">
-        <v>0.3080310422311641</v>
+        <v>0.8649619653229763</v>
       </c>
       <c r="L5">
-        <v>0.216504698506256</v>
+        <v>0.1817509743603694</v>
       </c>
       <c r="M5">
-        <v>0.1853790630078578</v>
+        <v>0.1578175589412751</v>
       </c>
       <c r="N5">
-        <v>2.286554776949842</v>
+        <v>1.161549062289496</v>
       </c>
       <c r="O5">
-        <v>4.126723371331167</v>
+        <v>1.858546946531234</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6157396584872004</v>
+        <v>0.5267886727889106</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1688728504422095</v>
+        <v>0.06535778354832544</v>
       </c>
       <c r="E6">
-        <v>0.1799474700205201</v>
+        <v>0.0698021150235415</v>
       </c>
       <c r="F6">
-        <v>1.661659815586113</v>
+        <v>0.7345618944150019</v>
       </c>
       <c r="G6">
-        <v>0.002487718026228421</v>
+        <v>0.0008234214204724711</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.226569817423222</v>
+        <v>0.5094578765467332</v>
       </c>
       <c r="J6">
-        <v>0.23530951305331</v>
+        <v>0.1089610805223522</v>
       </c>
       <c r="K6">
-        <v>0.3062005867707001</v>
+        <v>0.8588487995303637</v>
       </c>
       <c r="L6">
-        <v>0.216245133521646</v>
+        <v>0.1806504924123686</v>
       </c>
       <c r="M6">
-        <v>0.1851452062029537</v>
+        <v>0.1568530247902942</v>
       </c>
       <c r="N6">
-        <v>2.287429401434367</v>
+        <v>1.163480769352753</v>
       </c>
       <c r="O6">
-        <v>4.127647332182661</v>
+        <v>1.857443523654723</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6213477791534388</v>
+        <v>0.5494410927305466</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1688542375021882</v>
+        <v>0.06609823691244543</v>
       </c>
       <c r="E7">
-        <v>0.1796973818288898</v>
+        <v>0.06950024269757815</v>
       </c>
       <c r="F7">
-        <v>1.659420272060764</v>
+        <v>0.7382691411112532</v>
       </c>
       <c r="G7">
-        <v>0.002486975043104851</v>
+        <v>0.0008223649357846261</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.223468815335842</v>
+        <v>0.5054164113676904</v>
       </c>
       <c r="J7">
-        <v>0.2350972681079275</v>
+        <v>0.1086341260582318</v>
       </c>
       <c r="K7">
-        <v>0.3189061604986421</v>
+        <v>0.9012790273139046</v>
       </c>
       <c r="L7">
-        <v>0.2180544434467464</v>
+        <v>0.1882982213311948</v>
       </c>
       <c r="M7">
-        <v>0.1867747660790613</v>
+        <v>0.1635545653395845</v>
       </c>
       <c r="N7">
-        <v>2.281413126823845</v>
+        <v>1.150168098245172</v>
       </c>
       <c r="O7">
-        <v>4.121397421346416</v>
+        <v>1.865364743033496</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6466012843952171</v>
+        <v>0.6499194257533816</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1688701429548303</v>
+        <v>0.0694743581999191</v>
       </c>
       <c r="E8">
-        <v>0.1786633465765957</v>
+        <v>0.06825680147362601</v>
       </c>
       <c r="F8">
-        <v>1.651080039744301</v>
+        <v>0.7570631334343148</v>
       </c>
       <c r="G8">
-        <v>0.002483871854927591</v>
+        <v>0.000817871585144038</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.210719069950702</v>
+        <v>0.4890458767947834</v>
       </c>
       <c r="J8">
-        <v>0.2342193816053557</v>
+        <v>0.1072750034864445</v>
       </c>
       <c r="K8">
-        <v>0.3749738227314481</v>
+        <v>1.088541094086935</v>
       </c>
       <c r="L8">
-        <v>0.2262266965298352</v>
+        <v>0.2222914290026523</v>
       </c>
       <c r="M8">
-        <v>0.1941214609025792</v>
+        <v>0.193303704694749</v>
       </c>
       <c r="N8">
-        <v>2.256214395715638</v>
+        <v>1.09381724261558</v>
       </c>
       <c r="O8">
-        <v>4.097857824749411</v>
+        <v>1.90701215930369</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6979091114082792</v>
+        <v>0.8492128625682938</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1692508128427974</v>
+        <v>0.07650558776610694</v>
       </c>
       <c r="E9">
-        <v>0.1768843538965084</v>
+        <v>0.06614200779599244</v>
       </c>
       <c r="F9">
-        <v>1.6402536826483</v>
+        <v>0.803370673833264</v>
       </c>
       <c r="G9">
-        <v>0.002478413140649601</v>
+        <v>0.0008096480789545189</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.189067788612466</v>
+        <v>0.4624644008756249</v>
       </c>
       <c r="J9">
-        <v>0.2327076604668736</v>
+        <v>0.1049131319899423</v>
       </c>
       <c r="K9">
-        <v>0.4848870132238403</v>
+        <v>1.456611720207036</v>
       </c>
       <c r="L9">
-        <v>0.2429199879368298</v>
+        <v>0.2900239415091761</v>
       </c>
       <c r="M9">
-        <v>0.2090792882683559</v>
+        <v>0.2524113429553623</v>
       </c>
       <c r="N9">
-        <v>2.211643933548965</v>
+        <v>0.9922449949849259</v>
       </c>
       <c r="O9">
-        <v>4.066189319285286</v>
+        <v>2.014808223259251</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7366693982479262</v>
+        <v>0.9974218443371683</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1697411494334204</v>
+        <v>0.08194274408917579</v>
       </c>
       <c r="E10">
-        <v>0.1757278297605414</v>
+        <v>0.06479045864030386</v>
       </c>
       <c r="F10">
-        <v>1.63565854372321</v>
+        <v>0.8438598364471943</v>
       </c>
       <c r="G10">
-        <v>0.002474780931852356</v>
+        <v>0.0008039463287876041</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.175196704970396</v>
+        <v>0.4465576117838488</v>
       </c>
       <c r="J10">
-        <v>0.2317238108193553</v>
+        <v>0.1033655661100532</v>
       </c>
       <c r="K10">
-        <v>0.5655947066952081</v>
+        <v>1.728346084384128</v>
       </c>
       <c r="L10">
-        <v>0.2555854876677444</v>
+        <v>0.340637503541501</v>
       </c>
       <c r="M10">
-        <v>0.2203982565499203</v>
+        <v>0.2964473984994669</v>
       </c>
       <c r="N10">
-        <v>2.181843207720396</v>
+        <v>0.9233796802365539</v>
       </c>
       <c r="O10">
-        <v>4.051737205916254</v>
+        <v>2.112012567083411</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7545287023758078</v>
+        <v>1.065332100287492</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1700094625995803</v>
+        <v>0.08448012650521264</v>
       </c>
       <c r="E11">
-        <v>0.1752341351353381</v>
+        <v>0.06422067652969021</v>
       </c>
       <c r="F11">
-        <v>1.634295125295125</v>
+        <v>0.8638491943468267</v>
       </c>
       <c r="G11">
-        <v>0.002473209906300139</v>
+        <v>0.0008014220428245851</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.169327096115939</v>
+        <v>0.4401676603893634</v>
       </c>
       <c r="J11">
-        <v>0.2313035364627236</v>
+        <v>0.1027029855835124</v>
       </c>
       <c r="K11">
-        <v>0.6022961938869855</v>
+        <v>1.852440046222284</v>
       </c>
       <c r="L11">
-        <v>0.261433222517482</v>
+        <v>0.3638944408797187</v>
       </c>
       <c r="M11">
-        <v>0.2256177943026216</v>
+        <v>0.3166462475188681</v>
       </c>
       <c r="N11">
-        <v>2.168923914471204</v>
+        <v>0.8933753496568269</v>
       </c>
       <c r="O11">
-        <v>4.047072559852694</v>
+        <v>2.16063315912092</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7613237028075446</v>
+        <v>1.091126661309403</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1701175297275483</v>
+        <v>0.08545059701850022</v>
       </c>
       <c r="E12">
-        <v>0.175051828377458</v>
+        <v>0.0640114989606051</v>
       </c>
       <c r="F12">
-        <v>1.633883151728298</v>
+        <v>0.871659107216189</v>
       </c>
       <c r="G12">
-        <v>0.002472626628781988</v>
+        <v>0.000800475786411611</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.167167656228116</v>
+        <v>0.4378749376145059</v>
       </c>
       <c r="J12">
-        <v>0.2311482950150889</v>
+        <v>0.1024581056496885</v>
       </c>
       <c r="K12">
-        <v>0.616191671670407</v>
+        <v>1.899516729724951</v>
       </c>
       <c r="L12">
-        <v>0.2636598620052553</v>
+        <v>0.3727387547011176</v>
       </c>
       <c r="M12">
-        <v>0.2276042964691101</v>
+        <v>0.3243218543756825</v>
       </c>
       <c r="N12">
-        <v>2.164123249522575</v>
+        <v>0.8822103807932571</v>
       </c>
       <c r="O12">
-        <v>4.045580407505781</v>
+        <v>2.17972088651922</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7598588608296666</v>
+        <v>1.085567719242249</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1700939688225702</v>
+        <v>0.08524115410495625</v>
       </c>
       <c r="E13">
-        <v>0.1750908850864867</v>
+        <v>0.06405625433495477</v>
       </c>
       <c r="F13">
-        <v>1.63396724112016</v>
+        <v>0.8699661710561344</v>
       </c>
       <c r="G13">
-        <v>0.002472751731339365</v>
+        <v>0.0008006791569119315</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.167629918257948</v>
+        <v>0.4383629792534407</v>
       </c>
       <c r="J13">
-        <v>0.2311815555132348</v>
+        <v>0.1025105757868943</v>
       </c>
       <c r="K13">
-        <v>0.6131991582613807</v>
+        <v>1.889373878561997</v>
       </c>
       <c r="L13">
-        <v>0.2631797739550024</v>
+        <v>0.3708322432061522</v>
       </c>
       <c r="M13">
-        <v>0.2271760265056528</v>
+        <v>0.3226675395522776</v>
       </c>
       <c r="N13">
-        <v>2.165153085663437</v>
+        <v>0.8846060816643444</v>
       </c>
       <c r="O13">
-        <v>4.04588957775502</v>
+        <v>2.17557921321378</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.755087091755172</v>
+        <v>1.067452614610602</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1700182240821349</v>
+        <v>0.08455977243936275</v>
       </c>
       <c r="E14">
-        <v>0.1752190436559191</v>
+        <v>0.06420333470864836</v>
       </c>
       <c r="F14">
-        <v>1.634259142381211</v>
+        <v>0.8644868166867781</v>
       </c>
       <c r="G14">
-        <v>0.002473161686910933</v>
+        <v>0.0008013440026992774</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.169148170444124</v>
+        <v>0.4399764595018922</v>
       </c>
       <c r="J14">
-        <v>0.2312906864382871</v>
+        <v>0.1026827179938028</v>
       </c>
       <c r="K14">
-        <v>0.6034394390854914</v>
+        <v>1.856311274933717</v>
       </c>
       <c r="L14">
-        <v>0.2616161652963314</v>
+        <v>0.364621294298999</v>
       </c>
       <c r="M14">
-        <v>0.2257810259971436</v>
+        <v>0.3172771718046761</v>
       </c>
       <c r="N14">
-        <v>2.168527125467076</v>
+        <v>0.8924528120458142</v>
       </c>
       <c r="O14">
-        <v>4.046944305328395</v>
+        <v>2.162189709445556</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7521684045850918</v>
+        <v>1.056367050977286</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1699726685475298</v>
+        <v>0.08414367197929096</v>
       </c>
       <c r="E15">
-        <v>0.1752981488696541</v>
+        <v>0.06429428681625371</v>
       </c>
       <c r="F15">
-        <v>1.634451520122894</v>
+        <v>0.8611623043778849</v>
       </c>
       <c r="G15">
-        <v>0.002473414310183623</v>
+        <v>0.0008017524840203964</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.170086378932833</v>
+        <v>0.4409814672796522</v>
       </c>
       <c r="J15">
-        <v>0.2313580406564277</v>
+        <v>0.1027889468649548</v>
       </c>
       <c r="K15">
-        <v>0.5974609717108308</v>
+        <v>1.836071034690349</v>
       </c>
       <c r="L15">
-        <v>0.260659997787883</v>
+        <v>0.3608219039944487</v>
       </c>
       <c r="M15">
-        <v>0.2249278424274905</v>
+        <v>0.3139789840327936</v>
       </c>
       <c r="N15">
-        <v>2.170605749028869</v>
+        <v>0.8972850271992225</v>
       </c>
       <c r="O15">
-        <v>4.047626060797654</v>
+        <v>2.154077636821</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7355067700094367</v>
+        <v>0.9929942722644967</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1697245213586314</v>
+        <v>0.08177824290471847</v>
       </c>
       <c r="E16">
-        <v>0.1757607447126017</v>
+        <v>0.06482861081863689</v>
       </c>
       <c r="F16">
-        <v>1.635762256239545</v>
+        <v>0.8425863112417105</v>
       </c>
       <c r="G16">
-        <v>0.00247488523334266</v>
+        <v>0.0008041126648360443</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.175589153361521</v>
+        <v>0.4469926861471762</v>
       </c>
       <c r="J16">
-        <v>0.2317518243816679</v>
+        <v>0.1034097064749933</v>
       </c>
       <c r="K16">
-        <v>0.5631958571662494</v>
+        <v>1.720247255700514</v>
       </c>
       <c r="L16">
-        <v>0.2552050442938452</v>
+        <v>0.3391226214638579</v>
       </c>
       <c r="M16">
-        <v>0.2200585521955105</v>
+        <v>0.2951309427270417</v>
       </c>
       <c r="N16">
-        <v>2.182700332787631</v>
+        <v>0.9253677249790435</v>
       </c>
       <c r="O16">
-        <v>4.05208044832645</v>
+        <v>2.1089273032687</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7253431379261599</v>
+        <v>0.9542480125802228</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1695838502743001</v>
+        <v>0.08034380713297651</v>
       </c>
       <c r="E17">
-        <v>0.1760528225701212</v>
+        <v>0.06516801365058056</v>
       </c>
       <c r="F17">
-        <v>1.636752386955301</v>
+        <v>0.8316028734885279</v>
       </c>
       <c r="G17">
-        <v>0.00247580837851744</v>
+        <v>0.0008055781063535012</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.179077673003018</v>
+        <v>0.4509007944976844</v>
       </c>
       <c r="J17">
-        <v>0.2320003745182078</v>
+        <v>0.1038011771888474</v>
       </c>
       <c r="K17">
-        <v>0.5421715085819017</v>
+        <v>1.649327170185927</v>
       </c>
       <c r="L17">
-        <v>0.2518805567335818</v>
+        <v>0.3258731250702596</v>
       </c>
       <c r="M17">
-        <v>0.2170893396085276</v>
+        <v>0.2836128786718177</v>
       </c>
       <c r="N17">
-        <v>2.190283143778762</v>
+        <v>0.9429390772908057</v>
       </c>
       <c r="O17">
-        <v>4.055301930236396</v>
+        <v>2.082386333811939</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7195186917872718</v>
+        <v>0.9320077260159394</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1695072024406556</v>
+        <v>0.07952475442386486</v>
       </c>
       <c r="E18">
-        <v>0.1762238699634668</v>
+        <v>0.06536746201160293</v>
       </c>
       <c r="F18">
-        <v>1.637390318838115</v>
+        <v>0.8254324055240616</v>
       </c>
       <c r="G18">
-        <v>0.00247634700105342</v>
+        <v>0.0008064275505794763</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.181125635950863</v>
+        <v>0.4532279394899845</v>
       </c>
       <c r="J18">
-        <v>0.2321459030138353</v>
+        <v>0.1040302344279453</v>
       </c>
       <c r="K18">
-        <v>0.5300776938767342</v>
+        <v>1.608580037050928</v>
       </c>
       <c r="L18">
-        <v>0.2499765162904311</v>
+        <v>0.3182740027820898</v>
       </c>
       <c r="M18">
-        <v>0.2153881706836671</v>
+        <v>0.2770034995549082</v>
       </c>
       <c r="N18">
-        <v>2.194704555109793</v>
+        <v>0.9531697375590804</v>
       </c>
       <c r="O18">
-        <v>4.057334612482123</v>
+        <v>2.06753225094343</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7175503286385094</v>
+        <v>0.9244851306897317</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1694819842575228</v>
+        <v>0.07924845493574395</v>
       </c>
       <c r="E19">
-        <v>0.1762823083461447</v>
+        <v>0.065435715582848</v>
       </c>
       <c r="F19">
-        <v>1.637618071730131</v>
+        <v>0.82336799576602</v>
       </c>
       <c r="G19">
-        <v>0.002476530685699244</v>
+        <v>0.0008067162950930086</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.181826163970136</v>
+        <v>0.4540293335035663</v>
       </c>
       <c r="J19">
-        <v>0.2321956181860756</v>
+        <v>0.1041084559960606</v>
       </c>
       <c r="K19">
-        <v>0.525982758119568</v>
+        <v>1.594790887739549</v>
       </c>
       <c r="L19">
-        <v>0.249333239773577</v>
+        <v>0.3157046701214341</v>
       </c>
       <c r="M19">
-        <v>0.2148133300015331</v>
+        <v>0.2747682588500666</v>
       </c>
       <c r="N19">
-        <v>2.196211871687456</v>
+        <v>0.9566547739518985</v>
       </c>
       <c r="O19">
-        <v>4.05805373070001</v>
+        <v>2.062572331201324</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.726422862655852</v>
+        <v>0.9583678483327276</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1695983841307012</v>
+        <v>0.08049588168805855</v>
       </c>
       <c r="E20">
-        <v>0.1760214146392602</v>
+        <v>0.06513144479030819</v>
       </c>
       <c r="F20">
-        <v>1.636639904608209</v>
+        <v>0.8327567716836199</v>
       </c>
       <c r="G20">
-        <v>0.002475709316218162</v>
+        <v>0.0008054214310887377</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.178702023875111</v>
+        <v>0.45047652424633</v>
       </c>
       <c r="J20">
-        <v>0.2319736501636207</v>
+        <v>0.1037591010036092</v>
       </c>
       <c r="K20">
-        <v>0.5444097122974938</v>
+        <v>1.656872045842334</v>
       </c>
       <c r="L20">
-        <v>0.2522336151807423</v>
+        <v>0.3272812892462298</v>
       </c>
       <c r="M20">
-        <v>0.2174047309173659</v>
+        <v>0.2848373718044215</v>
       </c>
       <c r="N20">
-        <v>2.189469733287989</v>
+        <v>0.9410556867126969</v>
       </c>
       <c r="O20">
-        <v>4.054940394989444</v>
+        <v>2.085168764091577</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7564878102701869</v>
+        <v>1.072771264755715</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1700402971095656</v>
+        <v>0.08475964624374654</v>
       </c>
       <c r="E21">
-        <v>0.1751812744523562</v>
+        <v>0.06415995397295049</v>
       </c>
       <c r="F21">
-        <v>1.634170574261731</v>
+        <v>0.8660895919307308</v>
       </c>
       <c r="G21">
-        <v>0.002473040957574167</v>
+        <v>0.0008011484628479415</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.168700506906973</v>
+        <v>0.4394990500712339</v>
       </c>
       <c r="J21">
-        <v>0.2312585261237885</v>
+        <v>0.102631991553114</v>
       </c>
       <c r="K21">
-        <v>0.6063061810108366</v>
+        <v>1.866020124209257</v>
       </c>
       <c r="L21">
-        <v>0.2620751044160556</v>
+        <v>0.3664445520704049</v>
       </c>
       <c r="M21">
-        <v>0.2261905019680768</v>
+        <v>0.3188597046623514</v>
       </c>
       <c r="N21">
-        <v>2.167533602728289</v>
+        <v>0.8901426339442136</v>
       </c>
       <c r="O21">
-        <v>4.046627066162642</v>
+        <v>2.166103822539696</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7763236480537614</v>
+        <v>1.148001730672746</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1703667618353535</v>
+        <v>0.08760254187047423</v>
       </c>
       <c r="E22">
-        <v>0.174659259497111</v>
+        <v>0.06356347619317848</v>
       </c>
       <c r="F22">
-        <v>1.633164703857062</v>
+        <v>0.8892830134864056</v>
       </c>
       <c r="G22">
-        <v>0.002471364829995681</v>
+        <v>0.0007984118178213677</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.162532592046411</v>
+        <v>0.4330676656247796</v>
       </c>
       <c r="J22">
-        <v>0.230813918774798</v>
+        <v>0.1019305154067496</v>
       </c>
       <c r="K22">
-        <v>0.6467437295467846</v>
+        <v>2.003214085264261</v>
       </c>
       <c r="L22">
-        <v>0.2685782948202871</v>
+        <v>0.3922601415474958</v>
       </c>
       <c r="M22">
-        <v>0.2319905881918984</v>
+        <v>0.3412525574122611</v>
       </c>
       <c r="N22">
-        <v>2.153730919932064</v>
+        <v>0.8580198344179291</v>
       </c>
       <c r="O22">
-        <v>4.042792182914496</v>
+        <v>2.22296281790392</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7657200008704876</v>
+        <v>1.107804810798143</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1701890914416779</v>
+        <v>0.08607994066858282</v>
       </c>
       <c r="E23">
-        <v>0.174935397627058</v>
+        <v>0.06387827157997261</v>
       </c>
       <c r="F23">
-        <v>1.633645994614966</v>
+        <v>0.8767703347066487</v>
       </c>
       <c r="G23">
-        <v>0.002472253224372402</v>
+        <v>0.0007998674159645976</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.165790817928933</v>
+        <v>0.4364303845773101</v>
       </c>
       <c r="J23">
-        <v>0.23104913612055</v>
+        <v>0.1023016650184179</v>
       </c>
       <c r="K23">
-        <v>0.6251630973196995</v>
+        <v>1.929939461519922</v>
       </c>
       <c r="L23">
-        <v>0.2651009560470925</v>
+        <v>0.3784603491094032</v>
       </c>
       <c r="M23">
-        <v>0.2288897114427968</v>
+        <v>0.3292857113018002</v>
       </c>
       <c r="N23">
-        <v>2.161048836522186</v>
+        <v>0.875056635846164</v>
       </c>
       <c r="O23">
-        <v>4.044692802607898</v>
+        <v>2.192238468270943</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7259346606224142</v>
+        <v>0.9565051607607415</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1695918002086145</v>
+        <v>0.08042711129680669</v>
       </c>
       <c r="E24">
-        <v>0.1760356044208748</v>
+        <v>0.06514796412079082</v>
       </c>
       <c r="F24">
-        <v>1.636690543889756</v>
+        <v>0.8322346466928465</v>
       </c>
       <c r="G24">
-        <v>0.002475754077621877</v>
+        <v>0.0008054922423437903</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.178871722871662</v>
+        <v>0.4506680870440931</v>
       </c>
       <c r="J24">
-        <v>0.2319857240400243</v>
+        <v>0.1037781112070029</v>
       </c>
       <c r="K24">
-        <v>0.5433978410147233</v>
+        <v>1.653460928481053</v>
       </c>
       <c r="L24">
-        <v>0.252073974856458</v>
+        <v>0.3266446018626112</v>
       </c>
       <c r="M24">
-        <v>0.2172621242074442</v>
+        <v>0.2842837397034117</v>
       </c>
       <c r="N24">
-        <v>2.189837283189895</v>
+        <v>0.9419067673687023</v>
       </c>
       <c r="O24">
-        <v>4.055103282460038</v>
+        <v>2.083909570126508</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6838403107479678</v>
+        <v>0.7950160240639832</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1691106652932461</v>
+        <v>0.07455739896280988</v>
       </c>
       <c r="E25">
-        <v>0.1773391068254098</v>
+        <v>0.06667898413699902</v>
       </c>
       <c r="F25">
-        <v>1.642591793866728</v>
+        <v>0.7897609450745904</v>
       </c>
       <c r="G25">
-        <v>0.002479823166726138</v>
+        <v>0.0008118116577882063</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.194566989086056</v>
+        <v>0.4690386166859</v>
       </c>
       <c r="J25">
-        <v>0.2330942729551317</v>
+        <v>0.1055193349130974</v>
       </c>
       <c r="K25">
-        <v>0.4551588419247139</v>
+        <v>1.356868848311791</v>
       </c>
       <c r="L25">
-        <v>0.2383331672199489</v>
+        <v>0.2715661314289122</v>
       </c>
       <c r="M25">
-        <v>0.2049744790550463</v>
+        <v>0.2363247599363021</v>
       </c>
       <c r="N25">
-        <v>2.223183654671263</v>
+        <v>1.018735356488414</v>
       </c>
       <c r="O25">
-        <v>4.07320706256499</v>
+        <v>1.982642140793416</v>
       </c>
     </row>
   </sheetData>
